--- a/Total Cost Counts - Language.xlsx
+++ b/Total Cost Counts - Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/inesescobedo/projects/fall23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD7FF2B-AB51-4040-97AD-A8FA01E0AA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77565654-EFB7-0343-A913-8BF829A24766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{EA38B3A7-47B3-4005-8571-B37AA6976D99}"/>
   </bookViews>
@@ -687,10 +687,13 @@
   <dimension ref="A1:R82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5290,23 +5293,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="cd8c7d66-92c9-4246-a20d-08acf1584bca" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001386EB677B57AC4381871C2032397AB5" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b308125ae72fee55f119359341f7be7d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="74fc26fa-6940-4415-bf03-fcc59b6d16a7" xmlns:ns4="cd8c7d66-92c9-4246-a20d-08acf1584bca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1eef5c5bcb8acc172f7b1993c03c14a7" ns3:_="" ns4:_="">
     <xsd:import namespace="74fc26fa-6940-4415-bf03-fcc59b6d16a7"/>
@@ -5489,10 +5475,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="cd8c7d66-92c9-4246-a20d-08acf1584bca" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161DD1C4-890B-4648-A12F-B9D8B32611E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3909B3C-33BE-49E6-BDB3-F5C6832DF1C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="74fc26fa-6940-4415-bf03-fcc59b6d16a7"/>
+    <ds:schemaRef ds:uri="cd8c7d66-92c9-4246-a20d-08acf1584bca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5515,20 +5529,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3909B3C-33BE-49E6-BDB3-F5C6832DF1C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{161DD1C4-890B-4648-A12F-B9D8B32611E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="74fc26fa-6940-4415-bf03-fcc59b6d16a7"/>
-    <ds:schemaRef ds:uri="cd8c7d66-92c9-4246-a20d-08acf1584bca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>